--- a/MainTop/08.04.2025/p5.xlsx
+++ b/MainTop/08.04.2025/p5.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V61"/>
+  <dimension ref="A1:V49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -548,7 +548,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Термонаклейка Тукан цветы</t>
+          <t>Термонаклейка Цветы Колибри 2шт</t>
         </is>
       </c>
       <c r="B2" t="n">
@@ -558,7 +558,7 @@
         <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -570,31 +570,31 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J2" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -607,7 +607,7 @@
       <c r="S2" t="inlineStr"/>
       <c r="T2" t="inlineStr"/>
       <c r="U2" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="V2" t="inlineStr">
         <is>
@@ -618,7 +618,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Термонаклейка Девушка в цветах и золотом круге</t>
+          <t>Термонаклейка Цветы Магнолия 3шт розовые</t>
         </is>
       </c>
       <c r="B3" t="n">
@@ -637,7 +637,7 @@
         <v>3</v>
       </c>
       <c r="G3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -658,13 +658,13 @@
         <v>1</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="P3" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
@@ -677,7 +677,7 @@
       <c r="S3" t="inlineStr"/>
       <c r="T3" t="inlineStr"/>
       <c r="U3" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="V3" t="inlineStr">
         <is>
@@ -688,20 +688,20 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Термонаклейка Цветы Тюльпаны 3шт розовые</t>
+          <t>Термонаклейка Девушка макияж Хэллоуин</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -713,28 +713,28 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L4" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
         <v>1</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -747,7 +747,7 @@
       <c r="S4" t="inlineStr"/>
       <c r="T4" t="inlineStr"/>
       <c r="U4" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="V4" t="inlineStr">
         <is>
@@ -758,7 +758,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Термонаклейка Белый Кот в цветах</t>
+          <t>Термонаклейка Матрешка Moscow</t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -783,13 +783,13 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -801,10 +801,10 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="P5" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
@@ -817,7 +817,7 @@
       <c r="S5" t="inlineStr"/>
       <c r="T5" t="inlineStr"/>
       <c r="U5" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="V5" t="inlineStr">
         <is>
@@ -828,7 +828,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Термонаклейка Давид статуя цветы</t>
+          <t>Термонаклейка Сердце Love is Wild</t>
         </is>
       </c>
       <c r="B6" t="n">
@@ -841,22 +841,22 @@
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I6" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -865,16 +865,16 @@
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P6" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
@@ -887,7 +887,7 @@
       <c r="S6" t="inlineStr"/>
       <c r="T6" t="inlineStr"/>
       <c r="U6" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="V6" t="inlineStr">
         <is>
@@ -898,20 +898,20 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Термонаклейка Девушка Силует Закат</t>
+          <t>Термонаклейка Пантера силует внутри цветы</t>
         </is>
       </c>
       <c r="B7" t="n">
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -920,19 +920,19 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M7" t="n">
         <v>0</v>
@@ -941,10 +941,10 @@
         <v>0</v>
       </c>
       <c r="O7" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -957,7 +957,7 @@
       <c r="S7" t="inlineStr"/>
       <c r="T7" t="inlineStr"/>
       <c r="U7" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="V7" t="inlineStr">
         <is>
@@ -968,14 +968,14 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Термонаклейка Кит в золотом дизайне космос</t>
+          <t>Термонаклейка Мэрилин Монро Медуза Горгона</t>
         </is>
       </c>
       <c r="B8" t="n">
         <v>1</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -984,7 +984,7 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -993,28 +993,28 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P8" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
@@ -1027,7 +1027,7 @@
       <c r="S8" t="inlineStr"/>
       <c r="T8" t="inlineStr"/>
       <c r="U8" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V8" t="inlineStr">
         <is>
@@ -1038,23 +1038,23 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Термонаклейка Кит моряк волны лодка</t>
+          <t>Термонаклейка Бабочка синяя Blue butterfly</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
@@ -1072,10 +1072,10 @@
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
@@ -1084,7 +1084,7 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
@@ -1097,7 +1097,7 @@
       <c r="S9" t="inlineStr"/>
       <c r="T9" t="inlineStr"/>
       <c r="U9" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V9" t="inlineStr">
         <is>
@@ -1108,11 +1108,11 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Термонаклейка Синий лев с золотыми акцентами</t>
+          <t>Термонаклейка Белый волк с цветами и узорами</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -1121,31 +1121,31 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
+        <v>1</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>3</v>
+      </c>
+      <c r="L10" t="n">
         <v>2</v>
       </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" t="n">
-        <v>2</v>
-      </c>
-      <c r="K10" t="n">
-        <v>0</v>
-      </c>
-      <c r="L10" t="n">
-        <v>0</v>
-      </c>
       <c r="M10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N10" t="n">
         <v>0</v>
@@ -1154,7 +1154,7 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -1167,7 +1167,7 @@
       <c r="S10" t="inlineStr"/>
       <c r="T10" t="inlineStr"/>
       <c r="U10" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V10" t="inlineStr">
         <is>
@@ -1178,7 +1178,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Термонаклейка Девушка Венок Луна Акварель</t>
+          <t>Термонаклейка Девушка с галактической магией</t>
         </is>
       </c>
       <c r="B11" t="n">
@@ -1200,13 +1200,13 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -1215,16 +1215,16 @@
         <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O11" t="n">
         <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="Q11" t="n">
         <v>0</v>
@@ -1237,7 +1237,7 @@
       <c r="S11" t="inlineStr"/>
       <c r="T11" t="inlineStr"/>
       <c r="U11" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V11" t="inlineStr">
         <is>
@@ -1248,11 +1248,11 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Термонаклейка Цветы Розовые Лилии</t>
+          <t>Термонаклейка Кот Сфинкс Звезды Молния</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
@@ -1267,34 +1267,34 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H12" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I12" t="n">
         <v>1</v>
       </c>
       <c r="J12" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -1307,7 +1307,7 @@
       <c r="S12" t="inlineStr"/>
       <c r="T12" t="inlineStr"/>
       <c r="U12" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V12" t="inlineStr">
         <is>
@@ -1318,11 +1318,11 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Термонаклейка Инь Янь Леопарды</t>
+          <t>Термонаклейка Сердце Бабочки летят</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -1331,7 +1331,7 @@
         <v>3</v>
       </c>
       <c r="E13" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -1340,16 +1340,16 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -1364,7 +1364,7 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
@@ -1377,7 +1377,7 @@
       <c r="S13" t="inlineStr"/>
       <c r="T13" t="inlineStr"/>
       <c r="U13" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="V13" t="inlineStr">
         <is>
@@ -1388,7 +1388,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Термонаклейка Леопардовое сердце розовое</t>
+          <t>Термонаклейка Тукан цветы</t>
         </is>
       </c>
       <c r="B14" t="n">
@@ -1398,7 +1398,7 @@
         <v>1</v>
       </c>
       <c r="D14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -1407,16 +1407,16 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -1431,10 +1431,10 @@
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P14" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="Q14" t="n">
         <v>0</v>
@@ -1447,7 +1447,7 @@
       <c r="S14" t="inlineStr"/>
       <c r="T14" t="inlineStr"/>
       <c r="U14" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="V14" t="inlineStr">
         <is>
@@ -1458,32 +1458,32 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Термонаклейка Лес Гитара Закат</t>
+          <t>Термонаклейка Девушка в цветах и золотом круге</t>
         </is>
       </c>
       <c r="B15" t="n">
         <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D15" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1492,10 +1492,10 @@
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
@@ -1504,7 +1504,7 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -1517,7 +1517,7 @@
       <c r="S15" t="inlineStr"/>
       <c r="T15" t="inlineStr"/>
       <c r="U15" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="V15" t="inlineStr">
         <is>
@@ -1528,7 +1528,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Термонаклейка Микки Маус бабочки цверы силует</t>
+          <t>Термонаклейка Цветы Тюльпаны 3шт розовые</t>
         </is>
       </c>
       <c r="B16" t="n">
@@ -1538,10 +1538,10 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -1553,7 +1553,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1562,19 +1562,19 @@
         <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N16" t="n">
         <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -1587,7 +1587,7 @@
       <c r="S16" t="inlineStr"/>
       <c r="T16" t="inlineStr"/>
       <c r="U16" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="V16" t="inlineStr">
         <is>
@@ -1598,20 +1598,20 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Термонаклейка Мотылек Луна</t>
+          <t>Термонаклейка Белый Кот в цветах</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D17" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -1623,19 +1623,19 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L17" t="n">
         <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
@@ -1644,7 +1644,7 @@
         <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="Q17" t="n">
         <v>0</v>
@@ -1657,7 +1657,7 @@
       <c r="S17" t="inlineStr"/>
       <c r="T17" t="inlineStr"/>
       <c r="U17" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="V17" t="inlineStr">
         <is>
@@ -1668,11 +1668,11 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Термонаклейка Солнце Луна Звезды Астрология</t>
+          <t>Термонаклейка Давид статуя цветы</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
@@ -1693,13 +1693,13 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -1708,13 +1708,13 @@
         <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -1727,7 +1727,7 @@
       <c r="S18" t="inlineStr"/>
       <c r="T18" t="inlineStr"/>
       <c r="U18" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="V18" t="inlineStr">
         <is>
@@ -1738,11 +1738,11 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Термонаклейка Тигр в витражном стиле</t>
+          <t>Термонаклейка Девушка Силует Закат</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -1754,7 +1754,7 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -1772,7 +1772,7 @@
         <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M19" t="n">
         <v>0</v>
@@ -1781,10 +1781,10 @@
         <v>0</v>
       </c>
       <c r="O19" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="P19" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
@@ -1797,7 +1797,7 @@
       <c r="S19" t="inlineStr"/>
       <c r="T19" t="inlineStr"/>
       <c r="U19" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="V19" t="inlineStr">
         <is>
@@ -1808,11 +1808,11 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Термонаклейка Тигр спит среди тропических цветов</t>
+          <t>Термонаклейка Кит в золотом дизайне космос</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -1824,7 +1824,7 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -1839,22 +1839,22 @@
         <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L20" t="n">
         <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O20" t="n">
         <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="Q20" t="n">
         <v>0</v>
@@ -1867,7 +1867,7 @@
       <c r="S20" t="inlineStr"/>
       <c r="T20" t="inlineStr"/>
       <c r="U20" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="V20" t="inlineStr">
         <is>
@@ -1878,17 +1878,17 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Термонаклейка Чёрный волк красный луна</t>
+          <t>Термонаклейка Кит моряк волны лодка</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
@@ -1897,13 +1897,13 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -1915,7 +1915,7 @@
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
@@ -1924,7 +1924,7 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -1937,7 +1937,7 @@
       <c r="S21" t="inlineStr"/>
       <c r="T21" t="inlineStr"/>
       <c r="U21" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="V21" t="inlineStr">
         <is>
@@ -1948,36 +1948,36 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Термонаклейка набор Винни Пух</t>
+          <t>Термонаклейка Синий лев с золотыми акцентами</t>
         </is>
       </c>
       <c r="B22" t="n">
+        <v>1</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0</v>
+      </c>
+      <c r="E22" t="n">
+        <v>3</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0</v>
+      </c>
+      <c r="H22" t="n">
         <v>2</v>
       </c>
-      <c r="C22" t="n">
-        <v>0</v>
-      </c>
-      <c r="D22" t="n">
-        <v>0</v>
-      </c>
-      <c r="E22" t="n">
-        <v>0</v>
-      </c>
-      <c r="F22" t="n">
+      <c r="I22" t="n">
+        <v>0</v>
+      </c>
+      <c r="J22" t="n">
         <v>2</v>
       </c>
-      <c r="G22" t="n">
-        <v>0</v>
-      </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
-      <c r="J22" t="n">
-        <v>0</v>
-      </c>
       <c r="K22" t="n">
         <v>0</v>
       </c>
@@ -1988,13 +1988,13 @@
         <v>0</v>
       </c>
       <c r="N22" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O22" t="n">
         <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
@@ -2007,7 +2007,7 @@
       <c r="S22" t="inlineStr"/>
       <c r="T22" t="inlineStr"/>
       <c r="U22" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="V22" t="inlineStr">
         <is>
@@ -2018,35 +2018,35 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Термонаклейка набор Симпсоны The Simpsons</t>
+          <t>Термонаклейка Девушка Венок Луна Акварель</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -2055,7 +2055,7 @@
         <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
@@ -2064,7 +2064,7 @@
         <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="Q23" t="n">
         <v>0</v>
@@ -2077,7 +2077,7 @@
       <c r="S23" t="inlineStr"/>
       <c r="T23" t="inlineStr"/>
       <c r="U23" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="V23" t="inlineStr">
         <is>
@@ -2088,7 +2088,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Термонаклейка Девушка Маска Доберман Собака</t>
+          <t>Термонаклейка Цветы Розовые Лилии</t>
         </is>
       </c>
       <c r="B24" t="n">
@@ -2110,13 +2110,13 @@
         <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I24" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -2131,10 +2131,10 @@
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -2147,7 +2147,7 @@
       <c r="S24" t="inlineStr"/>
       <c r="T24" t="inlineStr"/>
       <c r="U24" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="V24" t="inlineStr">
         <is>
@@ -2158,20 +2158,20 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Термонаклейка Девушка гладиолус цветы</t>
+          <t>Термонаклейка Инь Янь Леопарды</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -2189,7 +2189,7 @@
         <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L25" t="n">
         <v>0</v>
@@ -2198,7 +2198,7 @@
         <v>0</v>
       </c>
       <c r="N25" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O25" t="n">
         <v>0</v>
@@ -2228,17 +2228,17 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Термонаклейка Девушка с колибри роза кольцо</t>
+          <t>Термонаклейка Леопардовое сердце розовое</t>
         </is>
       </c>
       <c r="B26" t="n">
         <v>1</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
@@ -2247,7 +2247,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2262,7 +2262,7 @@
         <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
         <v>0</v>
@@ -2298,7 +2298,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Термонаклейка Цветы Ирисы акварелью Синий</t>
+          <t>Термонаклейка Лес Гитара Закат</t>
         </is>
       </c>
       <c r="B27" t="n">
@@ -2308,7 +2308,7 @@
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E27" t="n">
         <v>0</v>
@@ -2329,10 +2329,10 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
@@ -2344,7 +2344,7 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -2357,7 +2357,7 @@
       <c r="S27" t="inlineStr"/>
       <c r="T27" t="inlineStr"/>
       <c r="U27" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="V27" t="inlineStr">
         <is>
@@ -2368,7 +2368,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Термонаклейка Бабочки 4шт небо внутри</t>
+          <t>Термонаклейка Микки Маус бабочки цверы силует</t>
         </is>
       </c>
       <c r="B28" t="n">
@@ -2378,7 +2378,7 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -2393,7 +2393,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2402,19 +2402,19 @@
         <v>0</v>
       </c>
       <c r="L28" t="n">
+        <v>0</v>
+      </c>
+      <c r="M28" t="n">
+        <v>0</v>
+      </c>
+      <c r="N28" t="n">
+        <v>0</v>
+      </c>
+      <c r="O28" t="n">
         <v>2</v>
       </c>
-      <c r="M28" t="n">
-        <v>0</v>
-      </c>
-      <c r="N28" t="n">
-        <v>2</v>
-      </c>
-      <c r="O28" t="n">
-        <v>0</v>
-      </c>
       <c r="P28" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="Q28" t="n">
         <v>0</v>
@@ -2427,7 +2427,7 @@
       <c r="S28" t="inlineStr"/>
       <c r="T28" t="inlineStr"/>
       <c r="U28" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="V28" t="inlineStr">
         <is>
@@ -2438,7 +2438,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Термонаклейка Большая волна в Канагаве Солнце</t>
+          <t>Термонаклейка Мотылек Луна</t>
         </is>
       </c>
       <c r="B29" t="n">
@@ -2448,16 +2448,16 @@
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E29" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2484,7 +2484,7 @@
         <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="Q29" t="n">
         <v>0</v>
@@ -2497,7 +2497,7 @@
       <c r="S29" t="inlineStr"/>
       <c r="T29" t="inlineStr"/>
       <c r="U29" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="V29" t="inlineStr">
         <is>
@@ -2508,7 +2508,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Термонаклейка Девушка Природа Силует</t>
+          <t>Термонаклейка Солнце Луна Звезды Астрология</t>
         </is>
       </c>
       <c r="B30" t="n">
@@ -2533,28 +2533,28 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -2567,7 +2567,7 @@
       <c r="S30" t="inlineStr"/>
       <c r="T30" t="inlineStr"/>
       <c r="U30" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="V30" t="inlineStr">
         <is>
@@ -2578,7 +2578,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Термонаклейка Леопард пятна сердечки голова</t>
+          <t>Термонаклейка Тигр в витражном стиле</t>
         </is>
       </c>
       <c r="B31" t="n">
@@ -2594,7 +2594,7 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2612,7 +2612,7 @@
         <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M31" t="n">
         <v>0</v>
@@ -2624,7 +2624,7 @@
         <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="Q31" t="n">
         <v>0</v>
@@ -2637,7 +2637,7 @@
       <c r="S31" t="inlineStr"/>
       <c r="T31" t="inlineStr"/>
       <c r="U31" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="V31" t="inlineStr">
         <is>
@@ -2648,7 +2648,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Термонаклейка Попугаи 2шт зеленый и желтый</t>
+          <t>Термонаклейка Тигр спит среди тропических цветов</t>
         </is>
       </c>
       <c r="B32" t="n">
@@ -2664,7 +2664,7 @@
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
@@ -2682,19 +2682,19 @@
         <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
         <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="Q32" t="n">
         <v>0</v>
@@ -2707,7 +2707,7 @@
       <c r="S32" t="inlineStr"/>
       <c r="T32" t="inlineStr"/>
       <c r="U32" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="V32" t="inlineStr">
         <is>
@@ -2718,14 +2718,14 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Термонаклейка Розовый фламинго цветы</t>
+          <t>Термонаклейка Чёрный волк красный луна</t>
         </is>
       </c>
       <c r="B33" t="n">
         <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D33" t="n">
         <v>0</v>
@@ -2737,7 +2737,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -2764,7 +2764,7 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -2777,7 +2777,7 @@
       <c r="S33" t="inlineStr"/>
       <c r="T33" t="inlineStr"/>
       <c r="U33" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="V33" t="inlineStr">
         <is>
@@ -2788,11 +2788,11 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Термонаклейка Сердце Море Силует</t>
+          <t>Термонаклейка набор Винни Пух</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -2801,11 +2801,11 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
+        <v>0</v>
+      </c>
+      <c r="F34" t="n">
         <v>2</v>
       </c>
-      <c r="F34" t="n">
-        <v>0</v>
-      </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
@@ -2825,16 +2825,16 @@
         <v>0</v>
       </c>
       <c r="M34" t="n">
+        <v>0</v>
+      </c>
+      <c r="N34" t="n">
         <v>2</v>
       </c>
-      <c r="N34" t="n">
-        <v>0</v>
-      </c>
       <c r="O34" t="n">
         <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="Q34" t="n">
         <v>0</v>
@@ -2847,7 +2847,7 @@
       <c r="S34" t="inlineStr"/>
       <c r="T34" t="inlineStr"/>
       <c r="U34" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="V34" t="inlineStr">
         <is>
@@ -2858,7 +2858,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Термонаклейка Сердце отпечаток пальца красный</t>
+          <t>Термонаклейка набор Симпсоны The Simpsons</t>
         </is>
       </c>
       <c r="B35" t="n">
@@ -2874,16 +2874,16 @@
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -2895,7 +2895,7 @@
         <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N35" t="n">
         <v>0</v>
@@ -2904,7 +2904,7 @@
         <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="Q35" t="n">
         <v>0</v>
@@ -2917,7 +2917,7 @@
       <c r="S35" t="inlineStr"/>
       <c r="T35" t="inlineStr"/>
       <c r="U35" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="V35" t="inlineStr">
         <is>
@@ -2928,7 +2928,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Термонаклейка Девушка Силует Акварель Лес</t>
+          <t>Термонаклейка Девушка Маска Доберман Собака</t>
         </is>
       </c>
       <c r="B36" t="n">
@@ -2953,7 +2953,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -2974,7 +2974,7 @@
         <v>2</v>
       </c>
       <c r="P36" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -2987,7 +2987,7 @@
       <c r="S36" t="inlineStr"/>
       <c r="T36" t="inlineStr"/>
       <c r="U36" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="V36" t="inlineStr">
         <is>
@@ -2998,7 +2998,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Термонаклейка Девушка бабочка Ван Гог</t>
+          <t>Термонаклейка Девушка гладиолус цветы</t>
         </is>
       </c>
       <c r="B37" t="n">
@@ -3029,22 +3029,22 @@
         <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L37" t="n">
         <v>0</v>
       </c>
       <c r="M37" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N37" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O37" t="n">
         <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="Q37" t="n">
         <v>0</v>
@@ -3057,7 +3057,7 @@
       <c r="S37" t="inlineStr"/>
       <c r="T37" t="inlineStr"/>
       <c r="U37" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="V37" t="inlineStr">
         <is>
@@ -3068,7 +3068,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Термонаклейка Девушка и 2 ласточки</t>
+          <t>Термонаклейка Девушка с колибри роза кольцо</t>
         </is>
       </c>
       <c r="B38" t="n">
@@ -3087,7 +3087,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3102,7 +3102,7 @@
         <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M38" t="n">
         <v>0</v>
@@ -3111,10 +3111,10 @@
         <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="Q38" t="n">
         <v>0</v>
@@ -3127,7 +3127,7 @@
       <c r="S38" t="inlineStr"/>
       <c r="T38" t="inlineStr"/>
       <c r="U38" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="V38" t="inlineStr">
         <is>
@@ -3138,14 +3138,14 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Термонаклейка Змеи черная белая 2шт</t>
+          <t>Термонаклейка Цветы Ирисы акварелью Синий</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
         <v>0</v>
@@ -3160,7 +3160,7 @@
         <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3169,7 +3169,7 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -3208,11 +3208,11 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Термонаклейка Инь Янь Кошки</t>
+          <t>Термонаклейка Бабочки 4шт небо внутри</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -3221,7 +3221,7 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -3242,13 +3242,13 @@
         <v>0</v>
       </c>
       <c r="L40" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M40" t="n">
         <v>0</v>
       </c>
       <c r="N40" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O40" t="n">
         <v>0</v>
@@ -3278,11 +3278,11 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Термонаклейка Лошадь в космических красках</t>
+          <t>Термонаклейка Большая волна в Канагаве Солнце</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -3291,13 +3291,13 @@
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F41" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3348,17 +3348,17 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Термонаклейка Одри Хепбёрн буквы</t>
+          <t>Термонаклейка Девушка Природа Силует</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C42" t="n">
         <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E42" t="n">
         <v>0</v>
@@ -3373,7 +3373,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3385,7 +3385,7 @@
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N42" t="n">
         <v>0</v>
@@ -3418,11 +3418,11 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Термонаклейка Подсолнух Ван Гог</t>
+          <t>Термонаклейка Леопард пятна сердечки голова</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -3431,7 +3431,7 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -3443,7 +3443,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3488,11 +3488,11 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Термонаклейка Сейлор Мун Sailor Moon голубой фон</t>
+          <t>Термонаклейка Попугаи 2шт зеленый и желтый</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -3519,16 +3519,16 @@
         <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O44" t="n">
         <v>0</v>
@@ -3558,14 +3558,14 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Термонаклейка Черепаха Цветы на панцире</t>
+          <t>Термонаклейка Розовый фламинго цветы</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D45" t="n">
         <v>0</v>
@@ -3595,10 +3595,10 @@
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N45" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
@@ -3628,11 +3628,11 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Термонаклейка набор Соник Sonic</t>
+          <t>Термонаклейка Сердце Море Силует</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -3647,7 +3647,7 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -3665,7 +3665,7 @@
         <v>0</v>
       </c>
       <c r="M46" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N46" t="n">
         <v>0</v>
@@ -3698,7 +3698,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Термонаклейка Котенок розовый закат звезды</t>
+          <t>Термонаклейка Сердце отпечаток пальца красный</t>
         </is>
       </c>
       <c r="B47" t="n">
@@ -3711,22 +3711,22 @@
         <v>0</v>
       </c>
       <c r="E47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F47" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G47" t="n">
         <v>0</v>
       </c>
       <c r="H47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I47" t="n">
         <v>1</v>
       </c>
       <c r="J47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K47" t="n">
         <v>0</v>
@@ -3768,7 +3768,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Термонаклейка Черный Кот Силует астрономия</t>
+          <t>Термонаклейка Девушка Силует Акварель Лес</t>
         </is>
       </c>
       <c r="B48" t="n">
@@ -3790,13 +3790,13 @@
         <v>0</v>
       </c>
       <c r="H48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I48" t="n">
         <v>1</v>
       </c>
       <c r="J48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K48" t="n">
         <v>0</v>
@@ -3811,7 +3811,7 @@
         <v>0</v>
       </c>
       <c r="O48" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P48" t="n">
         <v>4</v>
@@ -3838,14 +3838,14 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Термонаклейка Сова в цветах</t>
+          <t>Термонаклейка Девушка бабочка Ван Гог</t>
         </is>
       </c>
       <c r="B49" t="n">
         <v>1</v>
       </c>
       <c r="C49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D49" t="n">
         <v>0</v>
@@ -3875,7 +3875,7 @@
         <v>0</v>
       </c>
       <c r="M49" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N49" t="n">
         <v>0</v>
@@ -3884,7 +3884,7 @@
         <v>0</v>
       </c>
       <c r="P49" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="Q49" t="n">
         <v>0</v>
@@ -3897,851 +3897,11 @@
       <c r="S49" t="inlineStr"/>
       <c r="T49" t="inlineStr"/>
       <c r="U49" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V49" t="inlineStr">
         <is>
           <t>1_а4</t>
-        </is>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="inlineStr">
-        <is>
-          <t>Термонаклейка Череп цветы Подсолнух Ван Гог</t>
-        </is>
-      </c>
-      <c r="B50" t="n">
-        <v>1</v>
-      </c>
-      <c r="C50" t="n">
-        <v>0</v>
-      </c>
-      <c r="D50" t="n">
-        <v>0</v>
-      </c>
-      <c r="E50" t="n">
-        <v>0</v>
-      </c>
-      <c r="F50" t="n">
-        <v>0</v>
-      </c>
-      <c r="G50" t="n">
-        <v>0</v>
-      </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
-      <c r="I50" t="n">
-        <v>1</v>
-      </c>
-      <c r="J50" t="n">
-        <v>0</v>
-      </c>
-      <c r="K50" t="n">
-        <v>0</v>
-      </c>
-      <c r="L50" t="n">
-        <v>0</v>
-      </c>
-      <c r="M50" t="n">
-        <v>0</v>
-      </c>
-      <c r="N50" t="n">
-        <v>0</v>
-      </c>
-      <c r="O50" t="n">
-        <v>0</v>
-      </c>
-      <c r="P50" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q50" t="n">
-        <v>0</v>
-      </c>
-      <c r="R50" t="inlineStr">
-        <is>
-          <t>1_а4</t>
-        </is>
-      </c>
-      <c r="S50" t="inlineStr"/>
-      <c r="T50" t="inlineStr"/>
-      <c r="U50" t="n">
-        <v>1</v>
-      </c>
-      <c r="V50" t="inlineStr">
-        <is>
-          <t>1_а4</t>
-        </is>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="inlineStr">
-        <is>
-          <t>Термонаклейка Бабочка зеленная листья</t>
-        </is>
-      </c>
-      <c r="B51" t="n">
-        <v>0</v>
-      </c>
-      <c r="C51" t="n">
-        <v>0</v>
-      </c>
-      <c r="D51" t="n">
-        <v>0</v>
-      </c>
-      <c r="E51" t="n">
-        <v>0</v>
-      </c>
-      <c r="F51" t="n">
-        <v>0</v>
-      </c>
-      <c r="G51" t="n">
-        <v>0</v>
-      </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
-      <c r="I51" t="n">
-        <v>2</v>
-      </c>
-      <c r="J51" t="n">
-        <v>0</v>
-      </c>
-      <c r="K51" t="n">
-        <v>0</v>
-      </c>
-      <c r="L51" t="n">
-        <v>0</v>
-      </c>
-      <c r="M51" t="n">
-        <v>0</v>
-      </c>
-      <c r="N51" t="n">
-        <v>0</v>
-      </c>
-      <c r="O51" t="n">
-        <v>0</v>
-      </c>
-      <c r="P51" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q51" t="n">
-        <v>0</v>
-      </c>
-      <c r="R51" t="inlineStr">
-        <is>
-          <t>1_а4</t>
-        </is>
-      </c>
-      <c r="S51" t="inlineStr"/>
-      <c r="T51" t="inlineStr"/>
-      <c r="U51" t="n">
-        <v>1</v>
-      </c>
-      <c r="V51" t="inlineStr">
-        <is>
-          <t>1_а4</t>
-        </is>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="inlineStr">
-        <is>
-          <t>Термонаклейка Девушка холст растут цветы</t>
-        </is>
-      </c>
-      <c r="B52" t="n">
-        <v>0</v>
-      </c>
-      <c r="C52" t="n">
-        <v>0</v>
-      </c>
-      <c r="D52" t="n">
-        <v>0</v>
-      </c>
-      <c r="E52" t="n">
-        <v>0</v>
-      </c>
-      <c r="F52" t="n">
-        <v>0</v>
-      </c>
-      <c r="G52" t="n">
-        <v>0</v>
-      </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
-      <c r="I52" t="n">
-        <v>0</v>
-      </c>
-      <c r="J52" t="n">
-        <v>0</v>
-      </c>
-      <c r="K52" t="n">
-        <v>0</v>
-      </c>
-      <c r="L52" t="n">
-        <v>0</v>
-      </c>
-      <c r="M52" t="n">
-        <v>0</v>
-      </c>
-      <c r="N52" t="n">
-        <v>0</v>
-      </c>
-      <c r="O52" t="n">
-        <v>2</v>
-      </c>
-      <c r="P52" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q52" t="n">
-        <v>0</v>
-      </c>
-      <c r="R52" t="inlineStr">
-        <is>
-          <t>1_а4</t>
-        </is>
-      </c>
-      <c r="S52" t="inlineStr"/>
-      <c r="T52" t="inlineStr"/>
-      <c r="U52" t="n">
-        <v>1</v>
-      </c>
-      <c r="V52" t="inlineStr">
-        <is>
-          <t>1_а4</t>
-        </is>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="inlineStr">
-        <is>
-          <t>Термонаклейка Морская Ракушка Силует</t>
-        </is>
-      </c>
-      <c r="B53" t="n">
-        <v>0</v>
-      </c>
-      <c r="C53" t="n">
-        <v>0</v>
-      </c>
-      <c r="D53" t="n">
-        <v>0</v>
-      </c>
-      <c r="E53" t="n">
-        <v>0</v>
-      </c>
-      <c r="F53" t="n">
-        <v>0</v>
-      </c>
-      <c r="G53" t="n">
-        <v>0</v>
-      </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
-      <c r="I53" t="n">
-        <v>2</v>
-      </c>
-      <c r="J53" t="n">
-        <v>0</v>
-      </c>
-      <c r="K53" t="n">
-        <v>0</v>
-      </c>
-      <c r="L53" t="n">
-        <v>0</v>
-      </c>
-      <c r="M53" t="n">
-        <v>0</v>
-      </c>
-      <c r="N53" t="n">
-        <v>0</v>
-      </c>
-      <c r="O53" t="n">
-        <v>0</v>
-      </c>
-      <c r="P53" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q53" t="n">
-        <v>0</v>
-      </c>
-      <c r="R53" t="inlineStr">
-        <is>
-          <t>1_а4</t>
-        </is>
-      </c>
-      <c r="S53" t="inlineStr"/>
-      <c r="T53" t="inlineStr"/>
-      <c r="U53" t="n">
-        <v>1</v>
-      </c>
-      <c r="V53" t="inlineStr">
-        <is>
-          <t>1_а4</t>
-        </is>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" t="inlineStr">
-        <is>
-          <t>Термонаклейка Фламинго Flamingo цветы</t>
-        </is>
-      </c>
-      <c r="B54" t="n">
-        <v>0</v>
-      </c>
-      <c r="C54" t="n">
-        <v>0</v>
-      </c>
-      <c r="D54" t="n">
-        <v>0</v>
-      </c>
-      <c r="E54" t="n">
-        <v>0</v>
-      </c>
-      <c r="F54" t="n">
-        <v>0</v>
-      </c>
-      <c r="G54" t="n">
-        <v>0</v>
-      </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
-      <c r="I54" t="n">
-        <v>0</v>
-      </c>
-      <c r="J54" t="n">
-        <v>0</v>
-      </c>
-      <c r="K54" t="n">
-        <v>0</v>
-      </c>
-      <c r="L54" t="n">
-        <v>0</v>
-      </c>
-      <c r="M54" t="n">
-        <v>2</v>
-      </c>
-      <c r="N54" t="n">
-        <v>0</v>
-      </c>
-      <c r="O54" t="n">
-        <v>0</v>
-      </c>
-      <c r="P54" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q54" t="n">
-        <v>0</v>
-      </c>
-      <c r="R54" t="inlineStr">
-        <is>
-          <t>1_а4</t>
-        </is>
-      </c>
-      <c r="S54" t="inlineStr"/>
-      <c r="T54" t="inlineStr"/>
-      <c r="U54" t="n">
-        <v>1</v>
-      </c>
-      <c r="V54" t="inlineStr">
-        <is>
-          <t>1_а4</t>
-        </is>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" t="inlineStr">
-        <is>
-          <t>Термонаклейка набор Том и Джерри Tom and Jerry</t>
-        </is>
-      </c>
-      <c r="B55" t="n">
-        <v>0</v>
-      </c>
-      <c r="C55" t="n">
-        <v>0</v>
-      </c>
-      <c r="D55" t="n">
-        <v>0</v>
-      </c>
-      <c r="E55" t="n">
-        <v>2</v>
-      </c>
-      <c r="F55" t="n">
-        <v>0</v>
-      </c>
-      <c r="G55" t="n">
-        <v>0</v>
-      </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
-      <c r="I55" t="n">
-        <v>0</v>
-      </c>
-      <c r="J55" t="n">
-        <v>0</v>
-      </c>
-      <c r="K55" t="n">
-        <v>0</v>
-      </c>
-      <c r="L55" t="n">
-        <v>0</v>
-      </c>
-      <c r="M55" t="n">
-        <v>0</v>
-      </c>
-      <c r="N55" t="n">
-        <v>0</v>
-      </c>
-      <c r="O55" t="n">
-        <v>0</v>
-      </c>
-      <c r="P55" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q55" t="n">
-        <v>0</v>
-      </c>
-      <c r="R55" t="inlineStr">
-        <is>
-          <t>1_а4</t>
-        </is>
-      </c>
-      <c r="S55" t="inlineStr"/>
-      <c r="T55" t="inlineStr"/>
-      <c r="U55" t="n">
-        <v>1</v>
-      </c>
-      <c r="V55" t="inlineStr">
-        <is>
-          <t>1_а4</t>
-        </is>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" t="inlineStr">
-        <is>
-          <t>Термонаклейка Кит хвост из волн море океан</t>
-        </is>
-      </c>
-      <c r="B56" t="n">
-        <v>1</v>
-      </c>
-      <c r="C56" t="n">
-        <v>0</v>
-      </c>
-      <c r="D56" t="n">
-        <v>0</v>
-      </c>
-      <c r="E56" t="n">
-        <v>0</v>
-      </c>
-      <c r="F56" t="n">
-        <v>0</v>
-      </c>
-      <c r="G56" t="n">
-        <v>0</v>
-      </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
-      <c r="J56" t="n">
-        <v>0</v>
-      </c>
-      <c r="K56" t="n">
-        <v>0</v>
-      </c>
-      <c r="L56" t="n">
-        <v>0</v>
-      </c>
-      <c r="M56" t="n">
-        <v>1</v>
-      </c>
-      <c r="N56" t="n">
-        <v>0</v>
-      </c>
-      <c r="O56" t="n">
-        <v>0</v>
-      </c>
-      <c r="P56" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q56" t="n">
-        <v>0</v>
-      </c>
-      <c r="R56" t="inlineStr">
-        <is>
-          <t>1_а4</t>
-        </is>
-      </c>
-      <c r="S56" t="inlineStr"/>
-      <c r="T56" t="inlineStr"/>
-      <c r="U56" t="n">
-        <v>1</v>
-      </c>
-      <c r="V56" t="inlineStr">
-        <is>
-          <t>1_а4</t>
-        </is>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" t="inlineStr">
-        <is>
-          <t>Термонаклейка Медуза Горгона черно-белый</t>
-        </is>
-      </c>
-      <c r="B57" t="n">
-        <v>1</v>
-      </c>
-      <c r="C57" t="n">
-        <v>0</v>
-      </c>
-      <c r="D57" t="n">
-        <v>1</v>
-      </c>
-      <c r="E57" t="n">
-        <v>0</v>
-      </c>
-      <c r="F57" t="n">
-        <v>0</v>
-      </c>
-      <c r="G57" t="n">
-        <v>0</v>
-      </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
-      <c r="I57" t="n">
-        <v>0</v>
-      </c>
-      <c r="J57" t="n">
-        <v>0</v>
-      </c>
-      <c r="K57" t="n">
-        <v>0</v>
-      </c>
-      <c r="L57" t="n">
-        <v>0</v>
-      </c>
-      <c r="M57" t="n">
-        <v>0</v>
-      </c>
-      <c r="N57" t="n">
-        <v>0</v>
-      </c>
-      <c r="O57" t="n">
-        <v>0</v>
-      </c>
-      <c r="P57" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q57" t="n">
-        <v>0</v>
-      </c>
-      <c r="R57" t="inlineStr">
-        <is>
-          <t>1_а4</t>
-        </is>
-      </c>
-      <c r="S57" t="inlineStr"/>
-      <c r="T57" t="inlineStr"/>
-      <c r="U57" t="n">
-        <v>1</v>
-      </c>
-      <c r="V57" t="inlineStr">
-        <is>
-          <t>1_а4</t>
-        </is>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" t="inlineStr">
-        <is>
-          <t>Термонаклейка Чёрный кот на закате у моря и цветов</t>
-        </is>
-      </c>
-      <c r="B58" t="n">
-        <v>1</v>
-      </c>
-      <c r="C58" t="n">
-        <v>0</v>
-      </c>
-      <c r="D58" t="n">
-        <v>1</v>
-      </c>
-      <c r="E58" t="n">
-        <v>0</v>
-      </c>
-      <c r="F58" t="n">
-        <v>0</v>
-      </c>
-      <c r="G58" t="n">
-        <v>0</v>
-      </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
-      <c r="J58" t="n">
-        <v>0</v>
-      </c>
-      <c r="K58" t="n">
-        <v>0</v>
-      </c>
-      <c r="L58" t="n">
-        <v>0</v>
-      </c>
-      <c r="M58" t="n">
-        <v>0</v>
-      </c>
-      <c r="N58" t="n">
-        <v>0</v>
-      </c>
-      <c r="O58" t="n">
-        <v>0</v>
-      </c>
-      <c r="P58" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q58" t="n">
-        <v>0</v>
-      </c>
-      <c r="R58" t="inlineStr">
-        <is>
-          <t>1_а4</t>
-        </is>
-      </c>
-      <c r="S58" t="inlineStr"/>
-      <c r="T58" t="inlineStr"/>
-      <c r="U58" t="n">
-        <v>1</v>
-      </c>
-      <c r="V58" t="inlineStr">
-        <is>
-          <t>1_а4</t>
-        </is>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" t="inlineStr">
-        <is>
-          <t>Термонаклейка Девочка Ангел с хвостами</t>
-        </is>
-      </c>
-      <c r="B59" t="n">
-        <v>2</v>
-      </c>
-      <c r="C59" t="n">
-        <v>2</v>
-      </c>
-      <c r="D59" t="n">
-        <v>1</v>
-      </c>
-      <c r="E59" t="n">
-        <v>1</v>
-      </c>
-      <c r="F59" t="n">
-        <v>1</v>
-      </c>
-      <c r="G59" t="n">
-        <v>1</v>
-      </c>
-      <c r="H59" t="n">
-        <v>3</v>
-      </c>
-      <c r="I59" t="n">
-        <v>7</v>
-      </c>
-      <c r="J59" t="n">
-        <v>3</v>
-      </c>
-      <c r="K59" t="n">
-        <v>3</v>
-      </c>
-      <c r="L59" t="n">
-        <v>1</v>
-      </c>
-      <c r="M59" t="n">
-        <v>1</v>
-      </c>
-      <c r="N59" t="n">
-        <v>1</v>
-      </c>
-      <c r="O59" t="n">
-        <v>1</v>
-      </c>
-      <c r="P59" t="n">
-        <v>28</v>
-      </c>
-      <c r="Q59" t="n">
-        <v>0</v>
-      </c>
-      <c r="R59" t="inlineStr">
-        <is>
-          <t>2_а5</t>
-        </is>
-      </c>
-      <c r="S59" t="inlineStr"/>
-      <c r="T59" t="inlineStr"/>
-      <c r="U59" t="n">
-        <v>7</v>
-      </c>
-      <c r="V59" t="inlineStr">
-        <is>
-          <t>2_а5</t>
-        </is>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" t="inlineStr">
-        <is>
-          <t>Термонаклейка Единорог с ромашкой сердечки</t>
-        </is>
-      </c>
-      <c r="B60" t="n">
-        <v>1</v>
-      </c>
-      <c r="C60" t="n">
-        <v>1</v>
-      </c>
-      <c r="D60" t="n">
-        <v>1</v>
-      </c>
-      <c r="E60" t="n">
-        <v>7</v>
-      </c>
-      <c r="F60" t="n">
-        <v>1</v>
-      </c>
-      <c r="G60" t="n">
-        <v>1</v>
-      </c>
-      <c r="H60" t="n">
-        <v>3</v>
-      </c>
-      <c r="I60" t="n">
-        <v>1</v>
-      </c>
-      <c r="J60" t="n">
-        <v>1</v>
-      </c>
-      <c r="K60" t="n">
-        <v>3</v>
-      </c>
-      <c r="L60" t="n">
-        <v>1</v>
-      </c>
-      <c r="M60" t="n">
-        <v>1</v>
-      </c>
-      <c r="N60" t="n">
-        <v>1</v>
-      </c>
-      <c r="O60" t="n">
-        <v>1</v>
-      </c>
-      <c r="P60" t="n">
-        <v>24</v>
-      </c>
-      <c r="Q60" t="n">
-        <v>0</v>
-      </c>
-      <c r="R60" t="inlineStr">
-        <is>
-          <t>2_а5</t>
-        </is>
-      </c>
-      <c r="S60" t="inlineStr"/>
-      <c r="T60" t="inlineStr"/>
-      <c r="U60" t="n">
-        <v>6</v>
-      </c>
-      <c r="V60" t="inlineStr">
-        <is>
-          <t>2_а5</t>
-        </is>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" t="inlineStr">
-        <is>
-          <t>Термонаклейка Дисней утка Дейзи Сердечко</t>
-        </is>
-      </c>
-      <c r="B61" t="n">
-        <v>0</v>
-      </c>
-      <c r="C61" t="n">
-        <v>3</v>
-      </c>
-      <c r="D61" t="n">
-        <v>0</v>
-      </c>
-      <c r="E61" t="n">
-        <v>0</v>
-      </c>
-      <c r="F61" t="n">
-        <v>0</v>
-      </c>
-      <c r="G61" t="n">
-        <v>0</v>
-      </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
-      <c r="I61" t="n">
-        <v>5</v>
-      </c>
-      <c r="J61" t="n">
-        <v>0</v>
-      </c>
-      <c r="K61" t="n">
-        <v>3</v>
-      </c>
-      <c r="L61" t="n">
-        <v>3</v>
-      </c>
-      <c r="M61" t="n">
-        <v>2</v>
-      </c>
-      <c r="N61" t="n">
-        <v>0</v>
-      </c>
-      <c r="O61" t="n">
-        <v>0</v>
-      </c>
-      <c r="P61" t="n">
-        <v>16</v>
-      </c>
-      <c r="Q61" t="n">
-        <v>0</v>
-      </c>
-      <c r="R61" t="inlineStr">
-        <is>
-          <t>2_а5</t>
-        </is>
-      </c>
-      <c r="S61" t="inlineStr"/>
-      <c r="T61" t="inlineStr"/>
-      <c r="U61" t="n">
-        <v>4</v>
-      </c>
-      <c r="V61" t="inlineStr">
-        <is>
-          <t>2_а5</t>
         </is>
       </c>
     </row>

--- a/MainTop/08.04.2025/p5.xlsx
+++ b/MainTop/08.04.2025/p5.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V49"/>
+  <dimension ref="A1:V46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -548,7 +548,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Термонаклейка Цветы Колибри 2шт</t>
+          <t>Термонаклейка Цветы Магнолия 3шт розовые</t>
         </is>
       </c>
       <c r="B2" t="n">
@@ -561,40 +561,40 @@
         <v>1</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I2" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K2" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M2" t="n">
         <v>1</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P2" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -607,7 +607,7 @@
       <c r="S2" t="inlineStr"/>
       <c r="T2" t="inlineStr"/>
       <c r="U2" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="V2" t="inlineStr">
         <is>
@@ -618,23 +618,23 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Термонаклейка Цветы Магнолия 3шт розовые</t>
+          <t>Термонаклейка Девушка макияж Хэллоуин</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F3" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -643,13 +643,13 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -658,13 +658,13 @@
         <v>1</v>
       </c>
       <c r="N3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O3" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P3" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
@@ -677,7 +677,7 @@
       <c r="S3" t="inlineStr"/>
       <c r="T3" t="inlineStr"/>
       <c r="U3" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="V3" t="inlineStr">
         <is>
@@ -688,17 +688,17 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Термонаклейка Девушка макияж Хэллоуин</t>
+          <t>Термонаклейка Маленький принц на синем ките</t>
         </is>
       </c>
       <c r="B4" t="n">
         <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -713,13 +713,13 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -728,10 +728,10 @@
         <v>1</v>
       </c>
       <c r="N4" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P4" t="n">
         <v>12</v>
@@ -758,7 +758,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Термонаклейка Матрешка Moscow</t>
+          <t>Термонаклейка Цветы Колибри 2шт</t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -768,7 +768,7 @@
         <v>1</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -783,16 +783,16 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M5" t="n">
         <v>1</v>
@@ -801,7 +801,7 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
         <v>12</v>
@@ -828,35 +828,35 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Термонаклейка Сердце Love is Wild</t>
+          <t>Термонаклейка Матрешка Moscow</t>
         </is>
       </c>
       <c r="B6" t="n">
         <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E6" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="J6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -868,10 +868,10 @@
         <v>1</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P6" t="n">
         <v>12</v>
@@ -898,35 +898,35 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Термонаклейка Пантера силует внутри цветы</t>
+          <t>Термонаклейка Сердце Love is Wild</t>
         </is>
       </c>
       <c r="B7" t="n">
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J7" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -935,13 +935,13 @@
         <v>0</v>
       </c>
       <c r="M7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N7" t="n">
         <v>0</v>
       </c>
       <c r="O7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P7" t="n">
         <v>12</v>
@@ -968,35 +968,35 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Термонаклейка Мэрилин Монро Медуза Горгона</t>
+          <t>Термонаклейка Пантера силует внутри цветы</t>
         </is>
       </c>
       <c r="B8" t="n">
         <v>1</v>
       </c>
       <c r="C8" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F8" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -1005,16 +1005,16 @@
         <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
@@ -1027,7 +1027,7 @@
       <c r="S8" t="inlineStr"/>
       <c r="T8" t="inlineStr"/>
       <c r="U8" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="V8" t="inlineStr">
         <is>
@@ -1038,29 +1038,29 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Термонаклейка Бабочка синяя Blue butterfly</t>
+          <t>Термонаклейка Мэрилин Монро Медуза Горгона</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F9" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I9" t="n">
         <v>1</v>
@@ -1072,7 +1072,7 @@
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>1</v>
@@ -1081,7 +1081,7 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P9" t="n">
         <v>10</v>
@@ -1108,7 +1108,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Термонаклейка Белый волк с цветами и узорами</t>
+          <t>Термонаклейка Бабочка синяя Blue butterfly</t>
         </is>
       </c>
       <c r="B10" t="n">
@@ -1139,10 +1139,10 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="M10" t="n">
         <v>1</v>
@@ -1178,23 +1178,23 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Термонаклейка Девушка с галактической магией</t>
+          <t>Термонаклейка Белый волк с цветами и узорами</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -1209,16 +1209,16 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M11" t="n">
         <v>1</v>
       </c>
       <c r="N11" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
         <v>0</v>
@@ -1248,47 +1248,47 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Термонаклейка Кот Сфинкс Звезды Молния</t>
+          <t>Термонаклейка Девушка с галактической магией</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F12" t="n">
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
         <v>1</v>
       </c>
       <c r="J12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
       </c>
       <c r="L12" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" t="n">
+        <v>1</v>
+      </c>
+      <c r="N12" t="n">
         <v>2</v>
-      </c>
-      <c r="M12" t="n">
-        <v>1</v>
-      </c>
-      <c r="N12" t="n">
-        <v>1</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
@@ -1318,17 +1318,17 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Термонаклейка Сердце Бабочки летят</t>
+          <t>Термонаклейка Кот Сфинкс Звезды Молния</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -1337,7 +1337,7 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H13" t="n">
         <v>1</v>
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="K13" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O13" t="n">
         <v>0</v>
@@ -1388,17 +1388,17 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Термонаклейка Тукан цветы</t>
+          <t>Термонаклейка Сердце Бабочки летят</t>
         </is>
       </c>
       <c r="B14" t="n">
         <v>1</v>
       </c>
       <c r="C14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -1410,16 +1410,16 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I14" t="n">
         <v>1</v>
       </c>
       <c r="J14" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
@@ -1431,7 +1431,7 @@
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
         <v>10</v>
@@ -1458,11 +1458,11 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Термонаклейка Девушка в цветах и золотом круге</t>
+          <t>Термонаклейка Тукан цветы</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C15" t="n">
         <v>1</v>
@@ -1474,19 +1474,19 @@
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I15" t="n">
         <v>1</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -1495,16 +1495,16 @@
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P15" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -1517,7 +1517,7 @@
       <c r="S15" t="inlineStr"/>
       <c r="T15" t="inlineStr"/>
       <c r="U15" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V15" t="inlineStr">
         <is>
@@ -1528,32 +1528,32 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Термонаклейка Цветы Тюльпаны 3шт розовые</t>
+          <t>Термонаклейка Девушка в цветах и золотом круге</t>
         </is>
       </c>
       <c r="B16" t="n">
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1562,7 +1562,7 @@
         <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M16" t="n">
         <v>1</v>
@@ -1598,20 +1598,20 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Термонаклейка Белый Кот в цветах</t>
+          <t>Термонаклейка Цветы Тюльпаны 3шт розовые</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -1623,16 +1623,16 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M17" t="n">
         <v>1</v>
@@ -1668,14 +1668,14 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Термонаклейка Давид статуя цветы</t>
+          <t>Термонаклейка Белый Кот в цветах</t>
         </is>
       </c>
       <c r="B18" t="n">
         <v>1</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D18" t="n">
         <v>0</v>
@@ -1693,19 +1693,19 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
@@ -1738,7 +1738,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Термонаклейка Девушка Силует Закат</t>
+          <t>Термонаклейка Давид статуя цветы</t>
         </is>
       </c>
       <c r="B19" t="n">
@@ -1763,7 +1763,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -1772,7 +1772,7 @@
         <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M19" t="n">
         <v>0</v>
@@ -1781,7 +1781,7 @@
         <v>0</v>
       </c>
       <c r="O19" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="P19" t="n">
         <v>8</v>
@@ -1808,7 +1808,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Термонаклейка Кит в золотом дизайне космос</t>
+          <t>Термонаклейка Девушка Силует Закат</t>
         </is>
       </c>
       <c r="B20" t="n">
@@ -1839,19 +1839,19 @@
         <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M20" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="P20" t="n">
         <v>8</v>
@@ -1878,17 +1878,17 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Термонаклейка Кит моряк волны лодка</t>
+          <t>Термонаклейка Кит в золотом дизайне космос</t>
         </is>
       </c>
       <c r="B21" t="n">
         <v>1</v>
       </c>
       <c r="C21" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
@@ -1903,22 +1903,22 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
@@ -1948,20 +1948,20 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Термонаклейка Синий лев с золотыми акцентами</t>
+          <t>Термонаклейка Кит моряк волны лодка</t>
         </is>
       </c>
       <c r="B22" t="n">
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E22" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -1970,13 +1970,13 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J22" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -2018,17 +2018,17 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Термонаклейка Девушка Венок Луна Акварель</t>
+          <t>Термонаклейка Синий лев с золотыми акцентами</t>
         </is>
       </c>
       <c r="B23" t="n">
         <v>1</v>
       </c>
       <c r="C23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
         <v>3</v>
@@ -2040,13 +2040,13 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -2088,20 +2088,20 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Термонаклейка Цветы Розовые Лилии</t>
+          <t>Термонаклейка Девушка Венок Луна Акварель</t>
         </is>
       </c>
       <c r="B24" t="n">
         <v>1</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F24" t="n">
         <v>0</v>
@@ -2110,13 +2110,13 @@
         <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -2158,20 +2158,20 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Термонаклейка Инь Янь Леопарды</t>
+          <t>Термонаклейка Цветы Розовые Лилии</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -2180,13 +2180,13 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -2204,7 +2204,7 @@
         <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="Q25" t="n">
         <v>0</v>
@@ -2217,7 +2217,7 @@
       <c r="S25" t="inlineStr"/>
       <c r="T25" t="inlineStr"/>
       <c r="U25" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="V25" t="inlineStr">
         <is>
@@ -2228,26 +2228,26 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Термонаклейка Леопардовое сердце розовое</t>
+          <t>Термонаклейка Инь Янь Леопарды</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2298,17 +2298,17 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Термонаклейка Лес Гитара Закат</t>
+          <t>Термонаклейка Леопардовое сердце розовое</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D27" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E27" t="n">
         <v>0</v>
@@ -2317,7 +2317,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -2332,7 +2332,7 @@
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
@@ -2368,7 +2368,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Термонаклейка Микки Маус бабочки цверы силует</t>
+          <t>Термонаклейка Лес Гитара Закат</t>
         </is>
       </c>
       <c r="B28" t="n">
@@ -2378,7 +2378,7 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -2393,7 +2393,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2402,7 +2402,7 @@
         <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M28" t="n">
         <v>0</v>
@@ -2411,7 +2411,7 @@
         <v>0</v>
       </c>
       <c r="O28" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P28" t="n">
         <v>6</v>
@@ -2438,7 +2438,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Термонаклейка Мотылек Луна</t>
+          <t>Термонаклейка Микки Маус бабочки цверы силует</t>
         </is>
       </c>
       <c r="B29" t="n">
@@ -2448,10 +2448,10 @@
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E29" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
@@ -2463,7 +2463,7 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2481,7 +2481,7 @@
         <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P29" t="n">
         <v>6</v>
@@ -2508,7 +2508,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Термонаклейка Солнце Луна Звезды Астрология</t>
+          <t>Термонаклейка Мотылек Луна</t>
         </is>
       </c>
       <c r="B30" t="n">
@@ -2518,10 +2518,10 @@
         <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F30" t="n">
         <v>0</v>
@@ -2539,7 +2539,7 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -2548,7 +2548,7 @@
         <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
@@ -2578,7 +2578,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Термонаклейка Тигр в витражном стиле</t>
+          <t>Термонаклейка Солнце Луна Звезды Астрология</t>
         </is>
       </c>
       <c r="B31" t="n">
@@ -2594,7 +2594,7 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -2609,16 +2609,16 @@
         <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L31" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M31" t="n">
         <v>0</v>
       </c>
       <c r="N31" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O31" t="n">
         <v>0</v>
@@ -2648,7 +2648,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Термонаклейка Тигр спит среди тропических цветов</t>
+          <t>Термонаклейка Тигр в витражном стиле</t>
         </is>
       </c>
       <c r="B32" t="n">
@@ -2682,10 +2682,10 @@
         <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M32" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
         <v>0</v>
@@ -2718,7 +2718,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Термонаклейка Чёрный волк красный луна</t>
+          <t>Термонаклейка Тигр спит среди тропических цветов</t>
         </is>
       </c>
       <c r="B33" t="n">
@@ -2734,10 +2734,10 @@
         <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G33" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -2755,7 +2755,7 @@
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N33" t="n">
         <v>0</v>
@@ -2788,11 +2788,11 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Термонаклейка набор Винни Пух</t>
+          <t>Термонаклейка Чёрный волк красный луна</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -2804,10 +2804,10 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -2825,10 +2825,10 @@
         <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N34" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O34" t="n">
         <v>0</v>
@@ -2858,11 +2858,11 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Термонаклейка набор Симпсоны The Simpsons</t>
+          <t>Термонаклейка набор Винни Пух</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -2874,10 +2874,10 @@
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G35" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -2895,10 +2895,10 @@
         <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O35" t="n">
         <v>0</v>
@@ -2928,11 +2928,11 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Термонаклейка Девушка Маска Доберман Собака</t>
+          <t>Термонаклейка набор Симпсоны The Simpsons</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C36" t="n">
         <v>0</v>
@@ -2947,13 +2947,13 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -2965,13 +2965,13 @@
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N36" t="n">
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
         <v>6</v>
@@ -2998,7 +2998,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Термонаклейка Девушка гладиолус цветы</t>
+          <t>Термонаклейка Девушка Маска Доберман Собака</t>
         </is>
       </c>
       <c r="B37" t="n">
@@ -3023,13 +3023,13 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L37" t="n">
         <v>0</v>
@@ -3038,10 +3038,10 @@
         <v>0</v>
       </c>
       <c r="N37" t="n">
+        <v>0</v>
+      </c>
+      <c r="O37" t="n">
         <v>2</v>
-      </c>
-      <c r="O37" t="n">
-        <v>0</v>
       </c>
       <c r="P37" t="n">
         <v>6</v>
@@ -3068,7 +3068,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Термонаклейка Девушка с колибри роза кольцо</t>
+          <t>Термонаклейка Девушка гладиолус цветы</t>
         </is>
       </c>
       <c r="B38" t="n">
@@ -3087,28 +3087,28 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
+        <v>0</v>
+      </c>
+      <c r="H38" t="n">
+        <v>0</v>
+      </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>0</v>
+      </c>
+      <c r="K38" t="n">
+        <v>3</v>
+      </c>
+      <c r="L38" t="n">
+        <v>0</v>
+      </c>
+      <c r="M38" t="n">
+        <v>0</v>
+      </c>
+      <c r="N38" t="n">
         <v>2</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="n">
-        <v>0</v>
-      </c>
-      <c r="K38" t="n">
-        <v>0</v>
-      </c>
-      <c r="L38" t="n">
-        <v>3</v>
-      </c>
-      <c r="M38" t="n">
-        <v>0</v>
-      </c>
-      <c r="N38" t="n">
-        <v>0</v>
       </c>
       <c r="O38" t="n">
         <v>0</v>
@@ -3138,11 +3138,11 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Термонаклейка Цветы Ирисы акварелью Синий</t>
+          <t>Термонаклейка Девушка с колибри роза кольцо</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C39" t="n">
         <v>0</v>
@@ -3157,7 +3157,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -3169,10 +3169,10 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
@@ -3184,7 +3184,7 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -3197,7 +3197,7 @@
       <c r="S39" t="inlineStr"/>
       <c r="T39" t="inlineStr"/>
       <c r="U39" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="V39" t="inlineStr">
         <is>
@@ -3208,7 +3208,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Термонаклейка Бабочки 4шт небо внутри</t>
+          <t>Термонаклейка Цветы Ирисы акварелью Синий</t>
         </is>
       </c>
       <c r="B40" t="n">
@@ -3239,16 +3239,16 @@
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L40" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M40" t="n">
         <v>0</v>
       </c>
       <c r="N40" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O40" t="n">
         <v>0</v>
@@ -3278,7 +3278,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Термонаклейка Большая волна в Канагаве Солнце</t>
+          <t>Термонаклейка Бабочки 4шт небо внутри</t>
         </is>
       </c>
       <c r="B41" t="n">
@@ -3291,13 +3291,13 @@
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3312,13 +3312,13 @@
         <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M41" t="n">
         <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O41" t="n">
         <v>0</v>
@@ -3348,7 +3348,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Термонаклейка Девушка Природа Силует</t>
+          <t>Термонаклейка Большая волна в Канагаве Солнце</t>
         </is>
       </c>
       <c r="B42" t="n">
@@ -3361,19 +3361,19 @@
         <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F42" t="n">
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3385,7 +3385,7 @@
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
         <v>0</v>
@@ -3418,7 +3418,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Термонаклейка Леопард пятна сердечки голова</t>
+          <t>Термонаклейка Девушка Природа Силует</t>
         </is>
       </c>
       <c r="B43" t="n">
@@ -3443,7 +3443,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3455,7 +3455,7 @@
         <v>0</v>
       </c>
       <c r="M43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N43" t="n">
         <v>0</v>
@@ -3488,7 +3488,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Термонаклейка Попугаи 2шт зеленый и желтый</t>
+          <t>Термонаклейка Леопард пятна сердечки голова</t>
         </is>
       </c>
       <c r="B44" t="n">
@@ -3513,7 +3513,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -3522,13 +3522,13 @@
         <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
         <v>0</v>
@@ -3558,14 +3558,14 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Термонаклейка Розовый фламинго цветы</t>
+          <t>Термонаклейка Попугаи 2шт зеленый и желтый</t>
         </is>
       </c>
       <c r="B45" t="n">
         <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D45" t="n">
         <v>0</v>
@@ -3592,13 +3592,13 @@
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
@@ -3628,20 +3628,20 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Термонаклейка Сердце Море Силует</t>
+          <t>Термонаклейка Розовый фламинго цветы</t>
         </is>
       </c>
       <c r="B46" t="n">
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -3665,7 +3665,7 @@
         <v>0</v>
       </c>
       <c r="M46" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N46" t="n">
         <v>0</v>
@@ -3695,216 +3695,6 @@
         </is>
       </c>
     </row>
-    <row r="47">
-      <c r="A47" t="inlineStr">
-        <is>
-          <t>Термонаклейка Сердце отпечаток пальца красный</t>
-        </is>
-      </c>
-      <c r="B47" t="n">
-        <v>0</v>
-      </c>
-      <c r="C47" t="n">
-        <v>0</v>
-      </c>
-      <c r="D47" t="n">
-        <v>0</v>
-      </c>
-      <c r="E47" t="n">
-        <v>0</v>
-      </c>
-      <c r="F47" t="n">
-        <v>3</v>
-      </c>
-      <c r="G47" t="n">
-        <v>0</v>
-      </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
-      <c r="I47" t="n">
-        <v>1</v>
-      </c>
-      <c r="J47" t="n">
-        <v>0</v>
-      </c>
-      <c r="K47" t="n">
-        <v>0</v>
-      </c>
-      <c r="L47" t="n">
-        <v>0</v>
-      </c>
-      <c r="M47" t="n">
-        <v>0</v>
-      </c>
-      <c r="N47" t="n">
-        <v>0</v>
-      </c>
-      <c r="O47" t="n">
-        <v>0</v>
-      </c>
-      <c r="P47" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q47" t="n">
-        <v>0</v>
-      </c>
-      <c r="R47" t="inlineStr">
-        <is>
-          <t>1_а4</t>
-        </is>
-      </c>
-      <c r="S47" t="inlineStr"/>
-      <c r="T47" t="inlineStr"/>
-      <c r="U47" t="n">
-        <v>2</v>
-      </c>
-      <c r="V47" t="inlineStr">
-        <is>
-          <t>1_а4</t>
-        </is>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="inlineStr">
-        <is>
-          <t>Термонаклейка Девушка Силует Акварель Лес</t>
-        </is>
-      </c>
-      <c r="B48" t="n">
-        <v>1</v>
-      </c>
-      <c r="C48" t="n">
-        <v>0</v>
-      </c>
-      <c r="D48" t="n">
-        <v>0</v>
-      </c>
-      <c r="E48" t="n">
-        <v>0</v>
-      </c>
-      <c r="F48" t="n">
-        <v>0</v>
-      </c>
-      <c r="G48" t="n">
-        <v>0</v>
-      </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
-      <c r="I48" t="n">
-        <v>1</v>
-      </c>
-      <c r="J48" t="n">
-        <v>0</v>
-      </c>
-      <c r="K48" t="n">
-        <v>0</v>
-      </c>
-      <c r="L48" t="n">
-        <v>0</v>
-      </c>
-      <c r="M48" t="n">
-        <v>0</v>
-      </c>
-      <c r="N48" t="n">
-        <v>0</v>
-      </c>
-      <c r="O48" t="n">
-        <v>2</v>
-      </c>
-      <c r="P48" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q48" t="n">
-        <v>0</v>
-      </c>
-      <c r="R48" t="inlineStr">
-        <is>
-          <t>1_а4</t>
-        </is>
-      </c>
-      <c r="S48" t="inlineStr"/>
-      <c r="T48" t="inlineStr"/>
-      <c r="U48" t="n">
-        <v>2</v>
-      </c>
-      <c r="V48" t="inlineStr">
-        <is>
-          <t>1_а4</t>
-        </is>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="inlineStr">
-        <is>
-          <t>Термонаклейка Девушка бабочка Ван Гог</t>
-        </is>
-      </c>
-      <c r="B49" t="n">
-        <v>1</v>
-      </c>
-      <c r="C49" t="n">
-        <v>0</v>
-      </c>
-      <c r="D49" t="n">
-        <v>0</v>
-      </c>
-      <c r="E49" t="n">
-        <v>0</v>
-      </c>
-      <c r="F49" t="n">
-        <v>0</v>
-      </c>
-      <c r="G49" t="n">
-        <v>0</v>
-      </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J49" t="n">
-        <v>0</v>
-      </c>
-      <c r="K49" t="n">
-        <v>0</v>
-      </c>
-      <c r="L49" t="n">
-        <v>0</v>
-      </c>
-      <c r="M49" t="n">
-        <v>3</v>
-      </c>
-      <c r="N49" t="n">
-        <v>0</v>
-      </c>
-      <c r="O49" t="n">
-        <v>0</v>
-      </c>
-      <c r="P49" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q49" t="n">
-        <v>0</v>
-      </c>
-      <c r="R49" t="inlineStr">
-        <is>
-          <t>1_а4</t>
-        </is>
-      </c>
-      <c r="S49" t="inlineStr"/>
-      <c r="T49" t="inlineStr"/>
-      <c r="U49" t="n">
-        <v>2</v>
-      </c>
-      <c r="V49" t="inlineStr">
-        <is>
-          <t>1_а4</t>
-        </is>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
